--- a/Turbopump Feed.xlsx
+++ b/Turbopump Feed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Desktop\Engine-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DA768-57C2-490F-8191-1B52A8ABA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CA606-B3D8-4E4E-A1C5-4887B94B37BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F556386C-27FF-462B-BFC6-EC837803884E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{F556386C-27FF-462B-BFC6-EC837803884E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,14 +983,14 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="12">
         <f>B2*0.0254</f>
-        <v>0.1016</v>
+        <v>0.14223999999999998</v>
       </c>
       <c r="F2" s="12"/>
       <c r="H2" s="8" t="s">
@@ -1005,14 +1005,14 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="12">
         <f>B3*0.0254</f>
-        <v>1.5239999999999998E-2</v>
+        <v>1.4224000000000001E-2</v>
       </c>
       <c r="F3" s="12"/>
       <c r="H3" s="10" t="s">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="D8" s="12">
         <f>3.1416/4*D3^2</f>
-        <v>1.8241511903999995E-4</v>
+        <v>1.5890383703039999E-4</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D9" s="15">
         <f>D7/D8</f>
-        <v>26.313608352537141</v>
+        <v>30.206948363881914</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D13" s="14">
         <f>4*D5*D7/(3.1416*D12*D3)</f>
-        <v>381269.62473157054</v>
+        <v>408503.16935525415</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>40</v>
@@ -1153,14 +1153,14 @@
       </c>
       <c r="B16">
         <f>D16/101325*14.7</f>
-        <v>6.6968454462383242</v>
+        <v>13.237757733072739</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="12">
         <f>D14*D2/D3*D5*D9^2/2</f>
-        <v>46160.398968714166</v>
+        <v>91245.97294582281</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D20" s="12">
         <f>SQRT(D19/D14*D3/D2*2/D5)</f>
-        <v>38.985574255101078</v>
+        <v>31.831588084794014</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="D21" s="12">
         <f>D20*D8</f>
-        <v>7.1115581685870207E-3</v>
+        <v>5.0581614854449302E-3</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D22" s="12">
         <f>D21*D5</f>
-        <v>7.1115581685870204</v>
+        <v>5.0581614854449306</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="D26" s="12">
         <f>D22*D24</f>
-        <v>7.1115581685870204</v>
+        <v>5.0581614854449306</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
